--- a/biology/Zoologie/Astata/Astata.xlsx
+++ b/biology/Zoologie/Astata/Astata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Astata est un genre d'insectes de la famille des Crabronidae. Astata est le plus grand genre de cette sous-famille et est identifié par les caractéristiques de sa nervation alaire. Les mâles de ce genre et du genre apparenté Dryudella ont de très grands yeux composés qui se rejoignent largement au sommet de la tête.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS      (23 juillet 2020)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (23 juillet 2020) :
 Astata affinis Vander Linden, 1829
 Astata albovillosa Cameron, 1890
 Astata alpaca F. Parker, 1968
